--- a/storage/archivos/importar_hoteles.xlsx
+++ b/storage/archivos/importar_hoteles.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>nombre</t>
   </si>
@@ -63,6 +63,78 @@
   </si>
   <si>
     <t>https://www.google.com.mx/maps/place/Conrad+New+York/@40.7368149,-74.0263375,13z/data=!4m10!1m2!2m1!1shoteles+new+york!3m6!1s0x89c25a1b77ebc1fb:0xebfcac410239fc11!5m1!1s2018-07-08!8m2!3d40.7149967!4d-74.0157294</t>
+  </si>
+  <si>
+    <t>One Guadalajara Expo</t>
+  </si>
+  <si>
+    <t>Av. Chapalita 1470, Chapalita, Jardines Plaza del Sol, 44500 Guadalajara, JAL</t>
+  </si>
+  <si>
+    <t>https://www.google.com.mx/maps/place/One+Guadalajara+Expo/@20.6674362,-103.406031,13z/data=!4m10!1m2!2m1!1shoteles+guadalajara!3m6!1s0x0:0xe75045333f5147d5!5m1!1s2018-07-05!8m2!3d20.6588677!4d-103.3972156</t>
+  </si>
+  <si>
+    <t>Hotel Rui Plaza Guadalajara</t>
+  </si>
+  <si>
+    <t>Av. Adolfo López Mateos Sur 830, Chapalita, 44500 Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t>https://www.google.com.mx/maps/place/Hotel+Riu+Plaza+Guadalajara/@20.6674362,-103.406031,13z/data=!4m10!1m2!2m1!1shoteles+guadalajara!3m6!1s0x8428ae79d08424f1:0x5856cc8c87b76f76!5m1!1s2018-07-05!8m2!3d20.6657542!4d-103.3937931</t>
+  </si>
+  <si>
+    <t>Eco Hotel Guadalajara Expo</t>
+  </si>
+  <si>
+    <t>Calzada Lázaro Cárdenas 2773, Jardines del Bosque, 44520 Guadalajara, Jal.</t>
+  </si>
+  <si>
+    <t>https://www.google.com.mx/maps/place/Eco+Hotel+Guadalajara+Expo/@20.6674362,-103.406031,13z/data=!4m10!1m2!2m1!1shoteles+guadalajara!3m6!1s0x0:0x62ffffdcd89517f1!5m1!1s2018-07-05!8m2!3d20.6605341!4d-103.3866799</t>
+  </si>
+  <si>
+    <t>Hotel Elcano Acapulco</t>
+  </si>
+  <si>
+    <t>Av. Costera Miguel Alemán 75, Fracc. Club Deportivo, Deportivo, 39690 Acapulco, Gro.</t>
+  </si>
+  <si>
+    <t>https://www.google.com.mx/maps/place/Hotel+Elcano+Acapulco/@16.8478523,-99.9115038,13z/data=!4m10!1m2!2m1!1shoteles+acapulco!3m6!1s0x85ca578aaa5b1abb:0xc562bc0b61f45626!5m1!1s2018-07-05!8m2!3d16.8536902!4d-99.8582339</t>
+  </si>
+  <si>
+    <t>Hotel Acapulco Turquesa</t>
+  </si>
+  <si>
+    <t>Vasco de Gama 35, Fracc Costa Azul, Costa Azul, 39850 Acapulco, Gro.</t>
+  </si>
+  <si>
+    <t>https://www.google.com.mx/maps/place/Hotel+Acapulco+Turquesa/@16.8478523,-99.9115038,13z/data=!4m10!1m2!2m1!1shoteles+acapulco!3m6!1s0x0:0x8d8f4ed46753fcfe!5m1!1s2018-07-05!8m2!3d16.8494186!4d-99.8491144</t>
+  </si>
+  <si>
+    <t>Hotel Atenas Monterrey</t>
+  </si>
+  <si>
+    <t>Miguel Nieto 1302, Centro, 64440 Monterrey, N.L.</t>
+  </si>
+  <si>
+    <t>https://www.google.com.mx/maps/place/Hotel+Atenas/@25.694877,-100.3413821,13z/data=!4m10!1m2!2m1!1shoteles+monterrey!3m6!1s0x866295932aa718d3:0x714575a5d62c4d4!5m1!1s2018-07-05!8m2!3d25.6888433!4d-100.3273094</t>
+  </si>
+  <si>
+    <t>NMB Red Sun Hotel Monterrey</t>
+  </si>
+  <si>
+    <t>Av Alfonso Reyes 3637, Sin Nombre de Colonia 20, 64500 Monterrey, N.L.</t>
+  </si>
+  <si>
+    <t>https://www.google.com.mx/maps/place/MBM+Red+Sun+Hotel/@25.694877,-100.3413821,13z/data=!4m10!1m2!2m1!1shoteles+monterrey!3m6!1s0x0:0xa274b6a4b1ffdf7c!5m1!1s2018-07-05!8m2!3d25.7121999!4d-100.3118706</t>
+  </si>
+  <si>
+    <t>Four Points by Sheraton Monterrey</t>
+  </si>
+  <si>
+    <t>Ave Insurgentes 3961 Col, Vista Hermosa, 64640 Monterrey, N.L.</t>
+  </si>
+  <si>
+    <t>https://www.google.com.mx/maps/place/Four+Points+by+Sheraton+Galerias+Monterrey/@25.694877,-100.3413821,13z/data=!4m10!1m2!2m1!1shoteles+monterrey!3m6!1s0x8662960623defc07:0xe41aa52f6176077f!5m1!1s2018-07-05!8m2!3d25.6832258!4d-100.3553009</t>
   </si>
 </sst>
 </file>
@@ -433,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +575,116 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="5"/>
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
